--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2958.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2958.xlsx
@@ -354,7 +354,7 @@
         <v>2.825778750587342</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.118810370627381</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2958.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2958.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.205206084088181</v>
+        <v>0.28919917345047</v>
       </c>
       <c r="B1">
-        <v>2.825778750587342</v>
+        <v>0.213948518037796</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.686006307601929</v>
       </c>
       <c r="D1">
-        <v>2.118810370627381</v>
+        <v>3.748922348022461</v>
       </c>
       <c r="E1">
-        <v>1.198843702710822</v>
+        <v>3.078108072280884</v>
       </c>
     </row>
   </sheetData>
